--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF543D5-B26F-40DA-9FD5-31CADB06394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF71984C-A845-4068-97D0-D2097D865B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="132">
   <si>
     <t>Edição</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Voo2</t>
   </si>
   <si>
-    <t>"É um voo de drone realizado manualmente"</t>
-  </si>
-  <si>
     <t>"É um voo de drone autônomo"</t>
   </si>
   <si>
@@ -431,10 +428,46 @@
     <t>Formalizar dados para realização de voos com drones.</t>
   </si>
   <si>
-    <t>"20/06/2025"</t>
-  </si>
-  <si>
-    <t>"01/01/2025"</t>
+    <t>BancoIma02</t>
+  </si>
+  <si>
+    <t>BancoIma01</t>
+  </si>
+  <si>
+    <t>Banco.Imagens</t>
+  </si>
+  <si>
+    <t>Banco de imagens e vídeos dos voos.</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>"http://ufrj//ct//vistorias//predio//banco01"</t>
+  </si>
+  <si>
+    <t>"http://ufrj//ct//vistorias//predio//banco02"</t>
+  </si>
+  <si>
+    <t>"É o banco de imagens de voo de manutenção predial"</t>
+  </si>
+  <si>
+    <t>"VG_CT_Principal_2024_CT_Telhado_A_A_2024_08_08_08_18.kml"</t>
+  </si>
+  <si>
+    <t>"VG_CT_Principal_2024_CT_Eixos_E1_E1_2024_08_08_08_14.kml"</t>
+  </si>
+  <si>
+    <t>"É um voo de drone autônomo sobre o CT da UFRJ"</t>
+  </si>
+  <si>
+    <t>"É um voo de drone autônomo realizado sobre o CT da UFRJ"</t>
+  </si>
+  <si>
+    <t>"08/08/2024"</t>
+  </si>
+  <si>
+    <t>formato.kml</t>
   </si>
 </sst>
 </file>
@@ -685,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -819,6 +852,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1399,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,7 +1444,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45826.391044328702</v>
+        <v>45826.528859953702</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1440,7 +1476,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,11 +1495,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="8.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1652,7 +1688,7 @@
         <v>83</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>9</v>
@@ -1686,7 +1722,7 @@
         <v>Voo Plano</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="32" t="str">
         <f>_xlfn.TRANSLATE(P3,"pt","es")</f>
@@ -1960,7 +1996,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>9</v>
@@ -1991,14 +2027,14 @@
       </c>
       <c r="O7" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Data</v>
+        <v>Banco Imagens</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>Fecha de la inspección realizada o de un evento de interés.</v>
+        <v>Imágenes y videos de archivo de los vuelos.</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>12</v>
@@ -2018,6 +2054,83 @@
       <c r="W7" s="33" t="str">
         <f t="shared" ref="W7" si="9">CONCATENATE("Key.",LEFT(C7,3),".",A7)</f>
         <v>Key.Ope.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="26" t="str">
+        <f t="shared" ref="L8" si="10">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
+        <v>Operação</v>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f t="shared" ref="M8" si="11">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
+        <v>Manutenção</v>
+      </c>
+      <c r="N8" s="26" t="str">
+        <f t="shared" ref="N8" si="12">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
+        <v>Vistoria</v>
+      </c>
+      <c r="O8" s="26" t="str">
+        <f t="shared" ref="O8" si="13">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
+        <v>Data</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="32" t="str">
+        <f t="shared" ref="Q8" si="14">_xlfn.TRANSLATE(P8,"pt","es")</f>
+        <v>Fecha de la inspección realizada o de un evento de interés.</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="33" t="str">
+        <f t="shared" ref="W8" si="15">CONCATENATE("Key.",LEFT(C8,3),".",A8)</f>
+        <v>Key.Ope.8</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +2144,7 @@
   <conditionalFormatting sqref="F1:F5">
     <cfRule type="duplicateValues" dxfId="5" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F1048576 F1:F5">
+  <conditionalFormatting sqref="F9:F1048576 F1:F5">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
@@ -2319,28 +2432,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3828125" customWidth="1"/>
     <col min="3" max="3" width="7.53515625" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.4609375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="5.921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.921875" customWidth="1"/>
     <col min="8" max="8" width="2.69140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.07421875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.53515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.3828125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.84375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.3828125" bestFit="1" customWidth="1"/>
@@ -2437,22 +2550,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>9</v>
@@ -2511,25 +2624,25 @@
     </row>
     <row r="3" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>9</v>
@@ -2588,7 +2701,7 @@
     </row>
     <row r="4" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>95</v>
@@ -2600,13 +2713,13 @@
         <v>94</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>9</v>
@@ -2665,25 +2778,25 @@
     </row>
     <row r="5" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>123</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>9</v>
@@ -2695,7 +2808,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>9</v>
@@ -2742,25 +2855,25 @@
     </row>
     <row r="6" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>9</v>
@@ -2772,7 +2885,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L6" s="42" t="s">
         <v>9</v>
@@ -2819,37 +2932,37 @@
     </row>
     <row r="7" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>102</v>
+      <c r="H7" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>9</v>
@@ -2896,37 +3009,37 @@
     </row>
     <row r="8" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>114</v>
+      <c r="H8" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L8" s="42" t="s">
         <v>9</v>
@@ -2968,12 +3081,166 @@
         <v>9</v>
       </c>
       <c r="Y8" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="20" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B8">
+  <conditionalFormatting sqref="B1:B10">
     <cfRule type="duplicateValues" dxfId="2" priority="151"/>
     <cfRule type="duplicateValues" dxfId="1" priority="152"/>
   </conditionalFormatting>
@@ -2981,6 +3248,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="141"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF71984C-A845-4068-97D0-D2097D865B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA478489-4BE5-4ED6-AEA2-963BC3631D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45826.528859953702</v>
+        <v>45826.666463310183</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,16 +2436,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="7.53515625" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.921875" customWidth="1"/>
     <col min="8" max="8" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="3" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>113</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="4" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>95</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="5" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>119</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="6" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>118</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="7" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>106</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="8" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>114</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="9" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>96</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="10" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>97</v>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA478489-4BE5-4ED6-AEA2-963BC3631D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E79F6A-B8A9-4ED3-86B6-9E4BB52DDD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="136">
   <si>
     <t>Edição</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Projeto</t>
   </si>
   <si>
-    <t>Urbanismo</t>
-  </si>
-  <si>
     <t>Equivalente a</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Data da vistoria realizada ou de evento de interesse.</t>
-  </si>
-  <si>
     <t>Data01</t>
   </si>
   <si>
@@ -468,6 +462,24 @@
   </si>
   <si>
     <t>formato.kml</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Calendário</t>
+  </si>
+  <si>
+    <t>Data da realização do evento de vistoria.</t>
+  </si>
+  <si>
+    <t>Manutenção predial</t>
+  </si>
+  <si>
+    <t>é.pertencente.a</t>
   </si>
 </sst>
 </file>
@@ -718,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -856,6 +868,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,7 +1462,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45826.666463310183</v>
+        <v>45826.739094097225</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,7 +1494,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1497,29 +1515,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="8.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.921875" customWidth="1"/>
     <col min="2" max="2" width="4.3046875" customWidth="1"/>
     <col min="3" max="3" width="5.3046875" customWidth="1"/>
     <col min="4" max="4" width="5.921875" customWidth="1"/>
     <col min="5" max="5" width="4.69140625" customWidth="1"/>
     <col min="6" max="6" width="6.61328125" customWidth="1"/>
     <col min="7" max="11" width="6.4609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.07421875" customWidth="1"/>
+    <col min="14" max="14" width="5.53515625" customWidth="1"/>
+    <col min="15" max="15" width="7.15234375" customWidth="1"/>
     <col min="16" max="16" width="20.3046875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.15234375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.69140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.3828125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.921875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.84375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="23" width="4.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1602,16 +1622,16 @@
         <v>79</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>9</v>
@@ -1645,7 +1665,7 @@
         <v>Drone</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="32" t="str">
         <f>_xlfn.TRANSLATE(P2,"pt","es")</f>
@@ -1664,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="W2" s="33" t="str">
         <f t="shared" ref="W2:W3" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
@@ -1679,16 +1699,16 @@
         <v>79</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>9</v>
@@ -1722,7 +1742,7 @@
         <v>Voo Plano</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="32" t="str">
         <f>_xlfn.TRANSLATE(P3,"pt","es")</f>
@@ -1741,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="W3" s="33" t="str">
         <f t="shared" si="2"/>
@@ -1756,16 +1776,16 @@
         <v>79</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>9</v>
@@ -1799,7 +1819,7 @@
         <v>Voo Autônomo</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="32" t="str">
         <f>_xlfn.TRANSLATE(P4,"pt","es")</f>
@@ -1818,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="W4" s="33" t="str">
         <f t="shared" ref="W4" si="4">CONCATENATE("Key.",LEFT(C4,3),".",A4)</f>
@@ -1833,16 +1853,16 @@
         <v>79</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>9</v>
@@ -1876,7 +1896,7 @@
         <v>Voo Manual</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="32" t="str">
         <f t="shared" ref="Q5:Q7" si="6">_xlfn.TRANSLATE(P5,"pt","es")</f>
@@ -1895,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="W5" s="33" t="str">
         <f t="shared" ref="W5:W6" si="7">CONCATENATE("Key.",LEFT(C5,3),".",A5)</f>
@@ -1910,16 +1930,16 @@
         <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>9</v>
@@ -1953,7 +1973,7 @@
         <v>De Campo</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="32" t="str">
         <f t="shared" si="6"/>
@@ -1972,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="W6" s="33" t="str">
         <f t="shared" si="7"/>
@@ -1987,16 +2007,16 @@
         <v>79</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>9</v>
@@ -2030,7 +2050,7 @@
         <v>Banco Imagens</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="32" t="str">
         <f t="shared" si="6"/>
@@ -2049,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="W7" s="33" t="str">
         <f t="shared" ref="W7" si="9">CONCATENATE("Key.",LEFT(C7,3),".",A7)</f>
@@ -2063,17 +2083,17 @@
       <c r="B8" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>83</v>
+      <c r="C8" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>9</v>
@@ -2092,26 +2112,26 @@
       </c>
       <c r="L8" s="26" t="str">
         <f t="shared" ref="L8" si="10">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
-        <v>Operação</v>
+        <v>Temporal</v>
       </c>
       <c r="M8" s="26" t="str">
         <f t="shared" ref="M8" si="11">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
-        <v>Manutenção</v>
+        <v>Evento</v>
       </c>
       <c r="N8" s="26" t="str">
         <f t="shared" ref="N8" si="12">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
-        <v>Vistoria</v>
+        <v>Calendário</v>
       </c>
       <c r="O8" s="26" t="str">
         <f t="shared" ref="O8" si="13">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
         <v>Data</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="32" t="str">
         <f t="shared" ref="Q8" si="14">_xlfn.TRANSLATE(P8,"pt","es")</f>
-        <v>Fecha de la inspección realizada o de un evento de interés.</v>
+        <v>Fecha del evento de inspección.</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>12</v>
@@ -2126,33 +2146,36 @@
         <v>12</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="W8" s="33" t="str">
         <f t="shared" ref="W8" si="15">CONCATENATE("Key.",LEFT(C8,3),".",A8)</f>
-        <v>Key.Ope.8</v>
+        <v>Key.Tem.8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="duplicateValues" dxfId="5" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F1048576 F1:F5">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2310,12 +2333,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4328B84A-AA24-421E-9F4E-92D6A71CA3BE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2335,10 +2358,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2352,76 +2375,6 @@
         <v>9</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>3</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>4</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>5</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>6</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2434,16 +2387,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.15234375" customWidth="1"/>
     <col min="4" max="4" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.921875" bestFit="1" customWidth="1"/>
@@ -2454,8 +2407,8 @@
     <col min="11" max="11" width="24.3046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.84375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.53515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.07421875" customWidth="1"/>
+    <col min="15" max="15" width="7.23046875" customWidth="1"/>
     <col min="16" max="16" width="2.3828125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.84375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.3828125" bestFit="1" customWidth="1"/>
@@ -2550,22 +2503,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>103</v>
-      </c>
       <c r="E2" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>9</v>
@@ -2627,22 +2580,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>9</v>
@@ -2704,22 +2657,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>9</v>
@@ -2781,22 +2734,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>122</v>
-      </c>
       <c r="E5" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>9</v>
@@ -2808,7 +2761,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>9</v>
@@ -2858,22 +2811,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="E6" s="47" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>124</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>9</v>
@@ -2885,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L6" s="42" t="s">
         <v>9</v>
@@ -2935,22 +2888,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>9</v>
@@ -2962,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>9</v>
@@ -3012,22 +2965,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>9</v>
@@ -3039,7 +2992,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L8" s="42" t="s">
         <v>9</v>
@@ -3089,46 +3042,46 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="42" t="s">
-        <v>131</v>
-      </c>
       <c r="M9" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>9</v>
+        <v>125</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="P9" s="42" t="s">
         <v>9</v>
@@ -3166,46 +3119,46 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="42" t="s">
-        <v>131</v>
-      </c>
       <c r="M10" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>9</v>
+        <v>124</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="P10" s="42" t="s">
         <v>9</v>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E79F6A-B8A9-4ED3-86B6-9E4BB52DDD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DE075A-0609-43C9-A5B7-54834C1962B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45826.739094097225</v>
+        <v>45826.748988888889</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2387,19 +2387,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3046875" customWidth="1"/>
     <col min="3" max="3" width="7.15234375" customWidth="1"/>
     <col min="4" max="4" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.07421875" customWidth="1"/>
     <col min="7" max="7" width="22.921875" customWidth="1"/>
     <col min="8" max="8" width="2.69140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.07421875" bestFit="1" customWidth="1"/>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DE075A-0609-43C9-A5B7-54834C1962B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD6202-1ADB-4144-BBF9-DB13A733B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="138">
   <si>
     <t>Edição</t>
   </si>
@@ -404,9 +404,6 @@
     <t>é.voo.realizado</t>
   </si>
   <si>
-    <t>"É um plano de voo planejado para drone Mavic 2"</t>
-  </si>
-  <si>
     <t>Data02</t>
   </si>
   <si>
@@ -480,6 +477,15 @@
   </si>
   <si>
     <t>é.pertencente.a</t>
+  </si>
+  <si>
+    <t>"É um plano de voo planejado para o drone Mavic 2"</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -873,6 +879,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1348,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,7 +1471,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45826.748988888889</v>
+        <v>45922.458446990742</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1494,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,11 +1522,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="8.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1540,10 +1549,10 @@
     <col min="20" max="20" width="3.921875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.84375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
@@ -1613,8 +1622,14 @@
       <c r="W1" s="31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X1" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="25">
         <v>2</v>
       </c>
@@ -1684,14 +1699,20 @@
         <v>12</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W2" s="33" t="str">
-        <f t="shared" ref="W2:W3" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
+        <f t="shared" ref="W2:W8" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
         <v>Key.Ope.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25">
         <v>3</v>
       </c>
@@ -1761,14 +1782,20 @@
         <v>12</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W3" s="33" t="str">
         <f t="shared" si="2"/>
         <v>Key.Ope.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25">
         <v>4</v>
       </c>
@@ -1838,14 +1865,20 @@
         <v>12</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W4" s="33" t="str">
-        <f t="shared" ref="W4" si="4">CONCATENATE("Key.",LEFT(C4,3),".",A4)</f>
+        <f t="shared" si="2"/>
         <v>Key.Ope.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25">
         <v>5</v>
       </c>
@@ -1880,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="26" t="str">
-        <f t="shared" ref="L5:L6" si="5">_xlfn.CONCAT(SUBSTITUTE(C5,"1.",""))</f>
+        <f t="shared" ref="L5:L6" si="4">_xlfn.CONCAT(SUBSTITUTE(C5,"1.",""))</f>
         <v>Operação</v>
       </c>
       <c r="M5" s="26" t="str">
@@ -1899,7 +1932,7 @@
         <v>91</v>
       </c>
       <c r="Q5" s="32" t="str">
-        <f t="shared" ref="Q5:Q7" si="6">_xlfn.TRANSLATE(P5,"pt","es")</f>
+        <f t="shared" ref="Q5:Q7" si="5">_xlfn.TRANSLATE(P5,"pt","es")</f>
         <v>Vuelo manual realizado con dron.</v>
       </c>
       <c r="R5" s="27" t="s">
@@ -1915,14 +1948,20 @@
         <v>12</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W5" s="33" t="str">
-        <f t="shared" ref="W5:W6" si="7">CONCATENATE("Key.",LEFT(C5,3),".",A5)</f>
+        <f t="shared" si="2"/>
         <v>Key.Ope.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25">
         <v>6</v>
       </c>
@@ -1957,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="L6" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Operação</v>
       </c>
       <c r="M6" s="26" t="str">
@@ -1976,7 +2015,7 @@
         <v>88</v>
       </c>
       <c r="Q6" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Inspección realizada en campo.</v>
       </c>
       <c r="R6" s="27" t="s">
@@ -1992,14 +2031,20 @@
         <v>12</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W6" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>Key.Ope.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25">
         <v>7</v>
       </c>
@@ -2016,7 +2061,7 @@
         <v>82</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>9</v>
@@ -2034,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="26" t="str">
-        <f t="shared" ref="L7" si="8">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
+        <f t="shared" ref="L7" si="6">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
         <v>Operação</v>
       </c>
       <c r="M7" s="26" t="str">
@@ -2050,10 +2095,10 @@
         <v>Banco Imagens</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Imágenes y videos de archivo de los vuelos.</v>
       </c>
       <c r="R7" s="27" t="s">
@@ -2069,14 +2114,20 @@
         <v>12</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W7" s="33" t="str">
-        <f t="shared" ref="W7" si="9">CONCATENATE("Key.",LEFT(C7,3),".",A7)</f>
+        <f t="shared" si="2"/>
         <v>Key.Ope.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="8.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X7" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25">
         <v>8</v>
       </c>
@@ -2084,13 +2135,13 @@
         <v>79</v>
       </c>
       <c r="C8" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="E8" s="49" t="s">
         <v>131</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>132</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>98</v>
@@ -2111,46 +2162,52 @@
         <v>9</v>
       </c>
       <c r="L8" s="26" t="str">
-        <f t="shared" ref="L8" si="10">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
+        <f t="shared" ref="L8" si="7">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
         <v>Temporal</v>
       </c>
       <c r="M8" s="26" t="str">
-        <f t="shared" ref="M8" si="11">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
+        <f t="shared" ref="M8" si="8">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
         <v>Evento</v>
       </c>
       <c r="N8" s="26" t="str">
-        <f t="shared" ref="N8" si="12">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
+        <f t="shared" ref="N8" si="9">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
         <v>Calendário</v>
       </c>
       <c r="O8" s="26" t="str">
-        <f t="shared" ref="O8" si="13">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
+        <f t="shared" ref="O8" si="10">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
         <v>Data</v>
       </c>
       <c r="P8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="32" t="str">
+        <f t="shared" ref="Q8" si="11">_xlfn.TRANSLATE(P8,"pt","es")</f>
+        <v>Fecha del evento de inspección.</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="32" t="str">
-        <f t="shared" ref="Q8" si="14">_xlfn.TRANSLATE(P8,"pt","es")</f>
-        <v>Fecha del evento de inspección.</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>134</v>
-      </c>
       <c r="W8" s="33" t="str">
-        <f t="shared" ref="W8" si="15">CONCATENATE("Key.",LEFT(C8,3),".",A8)</f>
+        <f t="shared" si="2"/>
         <v>Key.Tem.8</v>
+      </c>
+      <c r="X8" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2387,9 +2444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2512,7 +2569,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>16</v>
@@ -2580,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>98</v>
@@ -2589,7 +2646,7 @@
         <v>101</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>16</v>
@@ -2734,22 +2791,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="D5" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>120</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>121</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>9</v>
@@ -2811,22 +2868,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>9</v>
@@ -2903,7 +2960,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>9</v>
@@ -2915,7 +2972,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>9</v>
@@ -2965,7 +3022,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>105</v>
@@ -2980,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>9</v>
@@ -2992,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L8" s="42" t="s">
         <v>9</v>
@@ -3069,19 +3126,19 @@
         <v>16</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P9" s="42" t="s">
         <v>9</v>
@@ -3134,31 +3191,31 @@
         <v>109</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>100</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P10" s="42" t="s">
         <v>9</v>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD6202-1ADB-4144-BBF9-DB13A733B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F4728-4C54-4152-8A88-E996AA58C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="139">
   <si>
     <t>Edição</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>ClasseIfc</t>
+  </si>
+  <si>
+    <t>ABNT</t>
   </si>
 </sst>
 </file>
@@ -1320,14 +1323,14 @@
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.3828125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="13"/>
+    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1465,16 +1468,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45922.458446990742</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45958.473354861111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1522,37 +1525,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD8"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="8.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.921875" customWidth="1"/>
-    <col min="2" max="2" width="4.3046875" customWidth="1"/>
-    <col min="3" max="3" width="5.3046875" customWidth="1"/>
-    <col min="4" max="4" width="5.921875" customWidth="1"/>
-    <col min="5" max="5" width="4.69140625" customWidth="1"/>
-    <col min="6" max="6" width="6.61328125" customWidth="1"/>
-    <col min="7" max="11" width="6.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.07421875" customWidth="1"/>
-    <col min="14" max="14" width="5.53515625" customWidth="1"/>
-    <col min="15" max="15" width="7.15234375" customWidth="1"/>
-    <col min="16" max="16" width="20.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.15234375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.69140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="6.3046875" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
@@ -1628,8 +1632,11 @@
       <c r="Y1" s="29" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z1" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>2</v>
       </c>
@@ -1711,8 +1718,11 @@
       <c r="Y2" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z2" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>3</v>
       </c>
@@ -1794,8 +1804,11 @@
       <c r="Y3" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z3" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>4</v>
       </c>
@@ -1877,8 +1890,11 @@
       <c r="Y4" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z4" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>5</v>
       </c>
@@ -1960,8 +1976,11 @@
       <c r="Y5" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z5" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>6</v>
       </c>
@@ -2043,8 +2062,11 @@
       <c r="Y6" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z6" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>7</v>
       </c>
@@ -2126,8 +2148,11 @@
       <c r="Y7" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z7" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>8</v>
       </c>
@@ -2207,6 +2232,9 @@
         <v>9</v>
       </c>
       <c r="Y8" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2246,14 +2274,14 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.69140625" style="12"/>
-    <col min="11" max="16384" width="5.69140625" style="23"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="12"/>
+    <col min="11" max="16384" width="5.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="21">
         <v>1</v>
       </c>
@@ -2318,7 +2346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>2</v>
       </c>
@@ -2398,16 +2426,16 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.3828125" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.15234375" style="13"/>
+    <col min="2" max="2" width="7.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -2421,7 +2449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -2449,36 +2477,36 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3046875" customWidth="1"/>
-    <col min="3" max="3" width="7.15234375" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.07421875" customWidth="1"/>
-    <col min="7" max="7" width="22.921875" customWidth="1"/>
-    <col min="8" max="8" width="2.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.53515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.07421875" customWidth="1"/>
-    <col min="15" max="15" width="7.23046875" customWidth="1"/>
-    <col min="16" max="16" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.84375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.84375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.84375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.84375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -2555,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -2632,7 +2660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -2709,7 +2737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -2786,7 +2814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -2863,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -2940,7 +2968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -3017,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -3094,7 +3122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -3171,7 +3199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F4728-4C54-4152-8A88-E996AA58C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4460FF-2843-4697-AF81-AD8EA0754606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="140">
   <si>
     <t>Edição</t>
   </si>
@@ -489,13 +489,16 @@
   </si>
   <si>
     <t>ABNT</t>
+  </si>
+  <si>
+    <t>000 Translate Classe 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,8 +562,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +697,12 @@
         <bgColor rgb="FFD9F2D0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -739,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -885,13 +901,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1323,14 +1353,14 @@
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="10.3828125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1376,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1401,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1410,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +1418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +1458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1436,7 +1466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1452,7 +1482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1468,16 +1498,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45958.473354861111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45989.68268125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1493,7 +1523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1525,38 +1555,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="8.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.84375" customWidth="1"/>
+    <col min="2" max="2" width="4.3046875" customWidth="1"/>
+    <col min="3" max="3" width="5.3046875" customWidth="1"/>
+    <col min="4" max="4" width="5.84375" customWidth="1"/>
+    <col min="5" max="5" width="4.69140625" customWidth="1"/>
+    <col min="6" max="6" width="6.53515625" customWidth="1"/>
+    <col min="7" max="11" width="6.3828125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.15234375" customWidth="1"/>
+    <col min="14" max="14" width="5.53515625" customWidth="1"/>
+    <col min="15" max="15" width="7.15234375" customWidth="1"/>
+    <col min="16" max="16" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.84375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.3046875" customWidth="1"/>
+    <col min="26" max="26" width="5.15234375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
@@ -1635,8 +1666,11 @@
       <c r="Z1" s="29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="25">
         <v>2</v>
       </c>
@@ -1721,8 +1755,12 @@
       <c r="Z2" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="52" t="str">
+        <f>_xlfn.TRANSLATE(P2,"pt","en")</f>
+        <v>It is a drone-type aircraft or UAS.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25">
         <v>3</v>
       </c>
@@ -1807,8 +1845,12 @@
       <c r="Z3" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="52" t="str">
+        <f t="shared" ref="AA3:AA8" si="3">_xlfn.TRANSLATE(P3,"pt","en")</f>
+        <v>Autonomous flight plan.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25">
         <v>4</v>
       </c>
@@ -1843,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="26" t="str">
-        <f t="shared" ref="L4" si="3">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
+        <f t="shared" ref="L4" si="4">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
         <v>Operação</v>
       </c>
       <c r="M4" s="26" t="str">
@@ -1893,8 +1935,12 @@
       <c r="Z4" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Autonomous flight carried out with a drone.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25">
         <v>5</v>
       </c>
@@ -1929,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="26" t="str">
-        <f t="shared" ref="L5:L6" si="4">_xlfn.CONCAT(SUBSTITUTE(C5,"1.",""))</f>
+        <f t="shared" ref="L5:L6" si="5">_xlfn.CONCAT(SUBSTITUTE(C5,"1.",""))</f>
         <v>Operação</v>
       </c>
       <c r="M5" s="26" t="str">
@@ -1948,7 +1994,7 @@
         <v>91</v>
       </c>
       <c r="Q5" s="32" t="str">
-        <f t="shared" ref="Q5:Q7" si="5">_xlfn.TRANSLATE(P5,"pt","es")</f>
+        <f t="shared" ref="Q5:Q7" si="6">_xlfn.TRANSLATE(P5,"pt","es")</f>
         <v>Vuelo manual realizado con dron.</v>
       </c>
       <c r="R5" s="27" t="s">
@@ -1979,8 +2025,12 @@
       <c r="Z5" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Manual flight carried out with drone.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25">
         <v>6</v>
       </c>
@@ -2015,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="L6" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Operação</v>
       </c>
       <c r="M6" s="26" t="str">
@@ -2034,7 +2084,7 @@
         <v>88</v>
       </c>
       <c r="Q6" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Inspección realizada en campo.</v>
       </c>
       <c r="R6" s="27" t="s">
@@ -2065,8 +2115,12 @@
       <c r="Z6" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Inspection carried out in the field.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25">
         <v>7</v>
       </c>
@@ -2101,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="26" t="str">
-        <f t="shared" ref="L7" si="6">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
+        <f t="shared" ref="L7" si="7">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
         <v>Operação</v>
       </c>
       <c r="M7" s="26" t="str">
@@ -2120,7 +2174,7 @@
         <v>118</v>
       </c>
       <c r="Q7" s="32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Imágenes y videos de archivo de los vuelos.</v>
       </c>
       <c r="R7" s="27" t="s">
@@ -2151,8 +2205,12 @@
       <c r="Z7" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Stock images and videos of the flights.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25">
         <v>8</v>
       </c>
@@ -2187,26 +2245,26 @@
         <v>9</v>
       </c>
       <c r="L8" s="26" t="str">
-        <f t="shared" ref="L8" si="7">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
+        <f t="shared" ref="L8" si="8">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
         <v>Temporal</v>
       </c>
       <c r="M8" s="26" t="str">
-        <f t="shared" ref="M8" si="8">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
+        <f t="shared" ref="M8" si="9">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
         <v>Evento</v>
       </c>
       <c r="N8" s="26" t="str">
-        <f t="shared" ref="N8" si="9">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
+        <f t="shared" ref="N8" si="10">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
         <v>Calendário</v>
       </c>
       <c r="O8" s="26" t="str">
-        <f t="shared" ref="O8" si="10">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
+        <f t="shared" ref="O8" si="11">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
         <v>Data</v>
       </c>
       <c r="P8" s="26" t="s">
         <v>132</v>
       </c>
       <c r="Q8" s="32" t="str">
-        <f t="shared" ref="Q8" si="11">_xlfn.TRANSLATE(P8,"pt","es")</f>
+        <f t="shared" ref="Q8" si="12">_xlfn.TRANSLATE(P8,"pt","es")</f>
         <v>Fecha del evento de inspección.</v>
       </c>
       <c r="R8" s="27" t="s">
@@ -2237,23 +2295,32 @@
       <c r="Z8" s="50" t="s">
         <v>9</v>
       </c>
+      <c r="AA8" s="52" t="str">
+        <f t="shared" si="3"/>
+        <v>Date of the inspection event.</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="duplicateValues" dxfId="5" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F1048576 F1:F5">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AA8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2274,14 +2341,14 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.7109375" style="12"/>
-    <col min="11" max="16384" width="5.7109375" style="23"/>
+    <col min="1" max="1" width="2.69140625" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.69140625" style="12"/>
+    <col min="11" max="16384" width="5.69140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
       <c r="A1" s="21">
         <v>1</v>
       </c>
@@ -2346,7 +2413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>2</v>
       </c>
@@ -2426,16 +2493,16 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="2" width="7.84375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.3828125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -2449,7 +2516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -2477,36 +2544,36 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3046875" customWidth="1"/>
+    <col min="3" max="3" width="7.15234375" customWidth="1"/>
+    <col min="4" max="4" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.15234375" customWidth="1"/>
+    <col min="7" max="7" width="22.84375" customWidth="1"/>
+    <col min="8" max="8" width="2.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.15234375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.53515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.15234375" customWidth="1"/>
+    <col min="15" max="15" width="7.3046875" customWidth="1"/>
+    <col min="16" max="16" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -2660,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -2737,7 +2804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -2814,7 +2881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -2891,7 +2958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -2968,7 +3035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -3045,7 +3112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -3122,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -3199,7 +3266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -3279,11 +3346,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B10">
-    <cfRule type="duplicateValues" dxfId="2" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="141"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4460FF-2843-4697-AF81-AD8EA0754606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A37DB05-191A-4A21-975C-A3650FC18083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="141">
   <si>
     <t>Edição</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>BIM</t>
-  </si>
-  <si>
-    <t>José Luis Menegotto</t>
   </si>
   <si>
     <t>Organização</t>
@@ -492,13 +489,19 @@
   </si>
   <si>
     <t>000 Translate Classe 5</t>
+  </si>
+  <si>
+    <t>Prof. José Luis Menegotto DEG/POLI/UFRJ</t>
+  </si>
+  <si>
+    <t>Explanation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +570,12 @@
       <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Nova Cond"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -755,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -908,20 +917,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -951,6 +955,14 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1346,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1381,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1415,28 +1427,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="53" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1460,7 +1472,7 @@
     </row>
     <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1468,7 +1480,7 @@
     </row>
     <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1476,7 +1488,7 @@
     </row>
     <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1484,7 +1496,7 @@
     </row>
     <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1495,21 +1507,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45989.68268125</v>
+        <v>45992.397566898151</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1517,7 +1529,7 @@
     </row>
     <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1533,19 +1545,28 @@
     </row>
     <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="str">
         <f>_xlfn.TRANSLATE(B22,"pt","es")</f>
         <v>Formalizar los datos de los vuelos de drones.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="53" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
+        <v>Formalize data for drone flights.</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AA8"/>
     </sheetView>
@@ -1589,85 +1610,85 @@
   <sheetData>
     <row r="1" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="30" t="s">
+      <c r="T1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="U1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>38</v>
-      </c>
       <c r="W1" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X1" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y1" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Z1" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="AA1" s="51" t="s">
         <v>138</v>
-      </c>
-      <c r="AA1" s="51" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -1675,19 +1696,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>9</v>
@@ -1721,7 +1742,7 @@
         <v>Drone</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="32" t="str">
         <f>_xlfn.TRANSLATE(P2,"pt","es")</f>
@@ -1740,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W2" s="33" t="str">
         <f t="shared" ref="W2:W8" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
@@ -1765,19 +1786,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>9</v>
@@ -1811,7 +1832,7 @@
         <v>Voo Plano</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="32" t="str">
         <f>_xlfn.TRANSLATE(P3,"pt","es")</f>
@@ -1830,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W3" s="33" t="str">
         <f t="shared" si="2"/>
@@ -1855,19 +1876,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>9</v>
@@ -1901,7 +1922,7 @@
         <v>Voo Autônomo</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="32" t="str">
         <f>_xlfn.TRANSLATE(P4,"pt","es")</f>
@@ -1920,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W4" s="33" t="str">
         <f t="shared" si="2"/>
@@ -1945,19 +1966,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>9</v>
@@ -1991,7 +2012,7 @@
         <v>Voo Manual</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="32" t="str">
         <f t="shared" ref="Q5:Q7" si="6">_xlfn.TRANSLATE(P5,"pt","es")</f>
@@ -2010,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W5" s="33" t="str">
         <f t="shared" si="2"/>
@@ -2035,19 +2056,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>9</v>
@@ -2081,7 +2102,7 @@
         <v>De Campo</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="32" t="str">
         <f t="shared" si="6"/>
@@ -2100,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W6" s="33" t="str">
         <f t="shared" si="2"/>
@@ -2125,19 +2146,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>9</v>
@@ -2171,7 +2192,7 @@
         <v>Banco Imagens</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="32" t="str">
         <f t="shared" si="6"/>
@@ -2190,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W7" s="33" t="str">
         <f t="shared" si="2"/>
@@ -2215,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="E8" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>131</v>
-      </c>
       <c r="F8" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>9</v>
@@ -2261,7 +2282,7 @@
         <v>Data</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="32" t="str">
         <f t="shared" ref="Q8" si="12">_xlfn.TRANSLATE(P8,"pt","es")</f>
@@ -2280,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W8" s="33" t="str">
         <f t="shared" si="2"/>
@@ -2320,7 +2341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2353,64 +2374,64 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
@@ -2510,10 +2531,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2575,7 +2596,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>13</v>
@@ -2614,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>2</v>
@@ -2655,22 +2676,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>9</v>
@@ -2732,22 +2753,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>9</v>
@@ -2809,22 +2830,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>9</v>
@@ -2886,22 +2907,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>117</v>
-      </c>
       <c r="D5" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>120</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>9</v>
@@ -2913,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>9</v>
@@ -2963,22 +2984,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>9</v>
@@ -2990,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="42" t="s">
         <v>9</v>
@@ -3040,22 +3061,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="D7" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>9</v>
@@ -3067,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>9</v>
@@ -3117,22 +3138,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>9</v>
@@ -3144,7 +3165,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" s="42" t="s">
         <v>9</v>
@@ -3194,46 +3215,46 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>104</v>
-      </c>
       <c r="H9" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P9" s="42" t="s">
         <v>9</v>
@@ -3271,46 +3292,46 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="41" t="s">
         <v>109</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>110</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P10" s="42" t="s">
         <v>9</v>
@@ -3346,11 +3367,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B10">
-    <cfRule type="duplicateValues" dxfId="3" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A37DB05-191A-4A21-975C-A3650FC18083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BCEEAF-1D32-4CC2-AE2D-6D4395BBCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="145">
   <si>
     <t>Edição</t>
   </si>
@@ -495,13 +495,25 @@
   </si>
   <si>
     <t>Explanation</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>"en"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +588,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial Nova Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -764,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -919,6 +937,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,53 +1385,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.3828125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="13"/>
+    <col min="3" max="3" width="3.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1412,8 +1452,11 @@
         <f>_xlfn.CONCAT(B4,"Prop")</f>
         <v>BIMProp</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1421,137 +1464,188 @@
         <f>_xlfn.CONCAT(B4,"Data")</f>
         <v>BIMData</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="53" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="53" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45992.397566898151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45992.541925810183</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -1559,14 +1653,20 @@
         <f>_xlfn.TRANSLATE(B22,"pt","es")</f>
         <v>Formalizar los datos de los vuelos de drones.</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="53" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="53" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
         <v>Formalize data for drone flights.</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/VANT/Ontologia_DRONE.xlsx
+++ b/Versão5/VANT/Ontologia_DRONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BCEEAF-1D32-4CC2-AE2D-6D4395BBCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831A366-1EC3-4BDC-B2FD-D9A0DCF36860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -500,13 +500,13 @@
     <t>Idioma</t>
   </si>
   <si>
-    <t>"pt"</t>
-  </si>
-  <si>
-    <t>"es"</t>
-  </si>
-  <si>
-    <t>"en"</t>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -1388,14 +1388,14 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.3828125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3046875" style="13" customWidth="1"/>
     <col min="3" max="3" width="3.4609375" style="56" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.15234375" style="13"/>
   </cols>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45992.541925810183</v>
+        <v>45992.732927893521</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>142</v>
